--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14630" windowHeight="7130"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>模型构件数</t>
   </si>
@@ -188,19 +190,43 @@
     <t>轻量化比例</t>
   </si>
   <si>
-    <t>模型构件（个）</t>
-  </si>
-  <si>
-    <t>三角面(1000个)</t>
-  </si>
-  <si>
-    <t>几何数据（MB）</t>
-  </si>
-  <si>
-    <t>材质数据（MB）</t>
-  </si>
-  <si>
-    <t>整体数据（MB）</t>
+    <t>Model component</t>
+  </si>
+  <si>
+    <t>Triangular surface</t>
+  </si>
+  <si>
+    <t>geometry data</t>
+  </si>
+  <si>
+    <t>material data</t>
+  </si>
+  <si>
+    <t>mesh data</t>
+  </si>
+  <si>
+    <t>Before lightweight Before lightweight treatment</t>
+  </si>
+  <si>
+    <t>After lightweight treatment</t>
+  </si>
+  <si>
+    <t>Model component（One）</t>
+  </si>
+  <si>
+    <t>Triangular surface(A thousand)</t>
+  </si>
+  <si>
+    <t>geometry data（MB）</t>
+  </si>
+  <si>
+    <t>material data（MB）</t>
+  </si>
+  <si>
+    <t>mesh data（MB）</t>
+  </si>
+  <si>
+    <t>轻量化减少的数据量</t>
   </si>
   <si>
     <t>模型构件</t>
@@ -218,9 +244,6 @@
     <t>整体数据</t>
   </si>
   <si>
-    <t>PM处理的数据量</t>
-  </si>
-  <si>
     <t>听众模型</t>
   </si>
   <si>
@@ -236,15 +259,6 @@
     <t>原模型（三角面个数）</t>
   </si>
   <si>
-    <t>1啊啊</t>
-  </si>
-  <si>
-    <t>1啊啊啊啊</t>
-  </si>
-  <si>
-    <t>1啊啊啊</t>
-  </si>
-  <si>
     <t>基模</t>
   </si>
   <si>
@@ -258,12 +272,6 @@
   </si>
   <si>
     <t>纹理贴图</t>
-  </si>
-  <si>
-    <t>资源个数</t>
-  </si>
-  <si>
-    <t>平均复用度</t>
   </si>
 </sst>
 </file>
@@ -272,11 +280,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,49 +293,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +335,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -356,11 +381,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,13 +427,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -396,15 +443,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -412,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,29 +464,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,13 +479,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,13 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,31 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,49 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,43 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,12 +599,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -650,9 +685,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -666,6 +699,19 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -696,8 +742,47 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,7 +791,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,17 +811,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,43 +864,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,10 +877,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,166 +889,187 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1101,7 +1192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>轻量化处理前</c:v>
+                  <c:v>Before lightweight Before lightweight treatment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1125,19 +1216,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>模型构件（个）</c:v>
+                  <c:v>Model component</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>三角面(1000个)</c:v>
+                  <c:v>Triangular surface</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>几何数据（MB）</c:v>
+                  <c:v>geometry data</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>材质数据（MB）</c:v>
+                  <c:v>material data</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>整体数据（MB）</c:v>
+                  <c:v>mesh data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1176,7 +1267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>轻量化处理后</c:v>
+                  <c:v>After lightweight treatment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1200,19 +1291,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>模型构件（个）</c:v>
+                  <c:v>Model component</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>三角面(1000个)</c:v>
+                  <c:v>Triangular surface</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>几何数据（MB）</c:v>
+                  <c:v>geometry data</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>材质数据（MB）</c:v>
+                  <c:v>material data</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>整体数据（MB）</c:v>
+                  <c:v>mesh data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1490,11 +1581,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>轻量化比例</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1513,48 +1604,21 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$15:$F$15</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>模型构件</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>三角面片</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>几何数据</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>材质数据</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>整体数据</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$F$16</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.974</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.937</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="0%">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0%">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.976</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,11 +1777,9 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
@@ -2812,15 +2874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259715</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2828,8 +2890,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8521700" y="1422400"/>
-        <a:ext cx="4699635" cy="689610"/>
+        <a:off x="6835775" y="28575"/>
+        <a:ext cx="5238115" cy="5007610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2839,31 +2901,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8833485" y="2559050"/>
-        <a:ext cx="3810000" cy="845185"/>
+        <a:off x="4019550" y="107950"/>
+        <a:ext cx="3810000" cy="1480820"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3130,80 +3197,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="34.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="16.9" customWidth="1"/>
     <col min="3" max="3" width="15.2818181818182" customWidth="1"/>
-    <col min="4" max="4" width="31.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="14.8636363636364" customWidth="1"/>
+    <col min="5" max="5" width="13.1545454545455" customWidth="1"/>
+    <col min="6" max="6" width="12.1909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" spans="1:6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>1674</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="9">
         <v>782650</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.75" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>43</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="9">
         <v>49395</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.75" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -3223,420 +3292,151 @@
       </c>
     </row>
     <row r="7" ht="14.75"/>
-    <row r="8" ht="24.75" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" ht="24" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" ht="36.75" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9">
         <v>1674</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <v>782.65</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>727.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="9">
         <v>30</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
         <v>757.5</v>
       </c>
     </row>
-    <row r="10" ht="14.75" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" ht="24.75" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10">
         <v>43</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="10">
         <v>49.395</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="10">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10">
         <v>10.7</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>18.7</v>
       </c>
     </row>
-    <row r="14" ht="14.75"/>
-    <row r="15" ht="14.75" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="11" ht="36" spans="2:6">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" ht="14.75" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
+    <row r="12" spans="2:6">
+      <c r="B12" s="11">
+        <v>1674</v>
+      </c>
+      <c r="C12" s="11">
+        <v>782.65</v>
+      </c>
+      <c r="D12" s="11">
+        <v>727.5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11">
+        <v>757.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="11">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11">
+        <v>49.395</v>
+      </c>
+      <c r="D13" s="11">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="F13" s="11">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="15">
         <v>0.974</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C25" s="15">
         <v>0.937</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D25" s="16">
         <v>0.99</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E25" s="16">
         <v>0.64</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F25" s="15">
         <v>0.976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="8">
-        <v>140</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8">
-        <f>B24-B22</f>
-        <v>395</v>
-      </c>
-      <c r="C23" s="8">
-        <f>C24-C22</f>
-        <v>12951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="8">
-        <v>535</v>
-      </c>
-      <c r="C24" s="8">
-        <v>15990</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8">
-        <v>140</v>
-      </c>
-      <c r="C28">
-        <f>D28-B28</f>
-        <v>395</v>
-      </c>
-      <c r="D28" s="8">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8">
-        <v>3039</v>
-      </c>
-      <c r="C29">
-        <f>D29-B29</f>
-        <v>12951</v>
-      </c>
-      <c r="D29" s="8">
-        <v>15990</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="8">
-        <v>140</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:C39" si="0">D35-B35</f>
-        <v>395</v>
-      </c>
-      <c r="D35" s="8">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="8">
-        <v>3039</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>12951</v>
-      </c>
-      <c r="D36" s="8">
-        <v>15990</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="8">
-        <v>140</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>395</v>
-      </c>
-      <c r="D38" s="8">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="8">
-        <v>3039</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>12951</v>
-      </c>
-      <c r="D39" s="8">
-        <v>15990</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="8">
-        <v>140</v>
-      </c>
-      <c r="C41">
-        <f>D41-B41</f>
-        <v>395</v>
-      </c>
-      <c r="D41" s="8">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="8">
-        <v>3039</v>
-      </c>
-      <c r="C42">
-        <f>D42-B42</f>
-        <v>12951</v>
-      </c>
-      <c r="D42" s="8">
-        <v>15990</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" s="9">
-        <v>4</v>
-      </c>
-      <c r="D46" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="9">
-        <v>838.5</v>
-      </c>
-      <c r="C47" s="9">
-        <v>419.25</v>
-      </c>
-      <c r="D47" s="9">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48">
-        <f>1677/B46</f>
-        <v>838.5</v>
-      </c>
-      <c r="C48">
-        <f>1677/C46</f>
-        <v>419.25</v>
-      </c>
-      <c r="D48">
-        <f>1677/D46</f>
-        <v>34.9375</v>
       </c>
     </row>
   </sheetData>
@@ -3644,4 +3444,332 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="14.75" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="14.75" spans="1:5">
+      <c r="A2" s="5">
+        <v>0.974</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.937</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="26.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="30.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="32.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <f>A4-A2</f>
+        <v>395</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B4-B2</f>
+        <v>12951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>535</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <f>C8-A8</f>
+        <v>395</v>
+      </c>
+      <c r="C8" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>3039</v>
+      </c>
+      <c r="B9">
+        <f>C9-A9</f>
+        <v>12951</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B19" si="0">C15-A15</f>
+        <v>395</v>
+      </c>
+      <c r="C15" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>3039</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>12951</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="C18" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>3039</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>12951</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>140</v>
+      </c>
+      <c r="B21">
+        <f>C21-A21</f>
+        <v>395</v>
+      </c>
+      <c r="C21" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>3039</v>
+      </c>
+      <c r="B22">
+        <f>C22-A22</f>
+        <v>12951</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>838.5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>419.25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f>1677/A26</f>
+        <v>838.5</v>
+      </c>
+      <c r="B28">
+        <f>1677/B26</f>
+        <v>419.25</v>
+      </c>
+      <c r="C28">
+        <f>1677/C26</f>
+        <v>34.9375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>模型构件数</t>
   </si>
@@ -205,12 +206,30 @@
     <t>mesh data</t>
   </si>
   <si>
-    <t>Before lightweight Before lightweight treatment</t>
+    <t>Before lightweight treatment</t>
   </si>
   <si>
     <t>After lightweight treatment</t>
   </si>
   <si>
+    <t># of 3D components</t>
+  </si>
+  <si>
+    <t># of Triangles</t>
+  </si>
+  <si>
+    <t>Meshes Data Size</t>
+  </si>
+  <si>
+    <t>Material Data Size</t>
+  </si>
+  <si>
+    <t>Total data</t>
+  </si>
+  <si>
+    <t>轻量化减少的数据量</t>
+  </si>
+  <si>
     <t>Model component（One）</t>
   </si>
   <si>
@@ -226,7 +245,10 @@
     <t>mesh data（MB）</t>
   </si>
   <si>
-    <t>轻量化减少的数据量</t>
+    <t>Reduced amount of data</t>
+  </si>
+  <si>
+    <t>Reduced ratio of data</t>
   </si>
   <si>
     <t>模型构件</t>
@@ -272,6 +294,36 @@
   </si>
   <si>
     <t>纹理贴图</t>
+  </si>
+  <si>
+    <t>人群的最大规模</t>
+  </si>
+  <si>
+    <t>轻量化之前</t>
+  </si>
+  <si>
+    <t>轻量化之后</t>
+  </si>
+  <si>
+    <t>设备1</t>
+  </si>
+  <si>
+    <t>设备2</t>
+  </si>
+  <si>
+    <t>Test equipment</t>
+  </si>
+  <si>
+    <t>Afterlightweight treatment</t>
+  </si>
+  <si>
+    <t>Rate of increase</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
   </si>
 </sst>
 </file>
@@ -279,15 +331,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,29 +388,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -351,38 +395,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,39 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -450,8 +438,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,18 +523,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -491,31 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,43 +624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,19 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,29 +720,76 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,17 +880,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,7 +902,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +942,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -833,15 +977,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,15 +995,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,186 +1015,228 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,11 +1356,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Before lightweight Before lightweight treatment</c:v>
+                  <c:v>Before lightweight treatment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1212,30 +1380,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Model component</c:v>
+                  <c:v># of 3D components</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Triangular surface</c:v>
+                  <c:v># of Triangles</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>geometry data</c:v>
+                  <c:v>Meshes Data Size</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>material data</c:v>
+                  <c:v>Material Data Size</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mesh data</c:v>
+                  <c:v>Total data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$F$9</c:f>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1263,7 +1431,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,30 +1455,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Model component</c:v>
+                  <c:v># of 3D components</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Triangular surface</c:v>
+                  <c:v># of Triangles</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>geometry data</c:v>
+                  <c:v>Meshes Data Size</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>material data</c:v>
+                  <c:v>Material Data Size</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mesh data</c:v>
+                  <c:v>Total data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:f>Sheet1!$B$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1707,7 +1875,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2873,16 +3041,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>414020</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165735</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2890,8 +3058,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6835775" y="28575"/>
-        <a:ext cx="5238115" cy="5007610"/>
+        <a:off x="7520305" y="1130935"/>
+        <a:ext cx="3820795" cy="6656705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3197,10 +3365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3213,229 +3381,466 @@
     <col min="6" max="6" width="12.1909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="14.75" spans="1:6">
+      <c r="A1" s="10"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>1674</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>782650</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.75" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>43</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>49395</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="14.75" spans="1:6">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="8">
         <v>0.974</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>0.937</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>0.99</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>0.64</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>0.976</v>
       </c>
     </row>
-    <row r="7" ht="14.75"/>
-    <row r="8" ht="24" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" ht="14.75" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" ht="24.75" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="36.75" spans="1:6">
-      <c r="A9" s="8" t="s">
+    <row r="9" ht="24.75" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>1674</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <v>782.65</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="12">
         <v>727.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>30</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="12">
         <v>757.5</v>
       </c>
     </row>
     <row r="10" ht="24.75" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="16">
         <v>43</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="16">
         <v>49.395</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="16">
         <v>8</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="16">
         <v>10.7</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="16">
         <v>18.7</v>
       </c>
     </row>
-    <row r="11" ht="36" spans="2:6">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="17" ht="14.75"/>
+    <row r="18" ht="24.75" spans="1:6">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="11">
+    <row r="19" ht="24.75" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12">
         <v>1674</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C19" s="12">
         <v>782.65</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D19" s="12">
         <v>727.5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E19" s="12">
         <v>30</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F19" s="12">
         <v>757.5</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="11">
+    <row r="20" ht="24.75" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="16">
         <v>43</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C20" s="16">
         <v>49.395</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D20" s="16">
         <v>8</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E20" s="16">
         <v>10.7</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F20" s="16">
         <v>18.7</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+    <row r="21" ht="58" customHeight="1" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.974</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.937</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="22" ht="36" spans="2:6">
+      <c r="B22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="17">
+        <v>1674</v>
+      </c>
+      <c r="C23" s="17">
+        <v>782.65</v>
+      </c>
+      <c r="D23" s="17">
+        <v>727.5</v>
+      </c>
+      <c r="E23" s="17">
+        <v>30</v>
+      </c>
+      <c r="F23" s="17">
+        <v>757.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="17">
+        <v>43</v>
+      </c>
+      <c r="C24" s="17">
+        <v>49.395</v>
+      </c>
+      <c r="D24" s="17">
+        <v>8</v>
+      </c>
+      <c r="E24" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="F24" s="17">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="1:6">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F35" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B36" s="21">
         <v>0.974</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C36" s="21">
         <v>0.937</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D36" s="22">
         <v>0.99</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E36" s="22">
         <v>0.64</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F36" s="21">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="42" ht="28" spans="1:6">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="28" spans="1:6">
+      <c r="A43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="25">
+        <v>1674</v>
+      </c>
+      <c r="C43" s="25">
+        <v>782650</v>
+      </c>
+      <c r="D43" s="25">
+        <v>727.5</v>
+      </c>
+      <c r="E43" s="25">
+        <v>30</v>
+      </c>
+      <c r="F43" s="25">
+        <v>757.5</v>
+      </c>
+    </row>
+    <row r="44" ht="28" spans="1:6">
+      <c r="A44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="26">
+        <v>43</v>
+      </c>
+      <c r="C44" s="26">
+        <v>49395</v>
+      </c>
+      <c r="D44" s="26">
+        <v>8</v>
+      </c>
+      <c r="E44" s="26">
+        <v>10.7</v>
+      </c>
+      <c r="F44" s="26">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="45" ht="28" spans="1:6">
+      <c r="A45" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="27">
+        <f>B43-B44</f>
+        <v>1631</v>
+      </c>
+      <c r="C45" s="27">
+        <f>C43-C44</f>
+        <v>733255</v>
+      </c>
+      <c r="D45" s="27">
+        <f>D43-D44</f>
+        <v>719.5</v>
+      </c>
+      <c r="E45" s="27">
+        <f>E43-E44</f>
+        <v>19.3</v>
+      </c>
+      <c r="F45" s="27">
+        <f>F43-F44</f>
+        <v>738.8</v>
+      </c>
+    </row>
+    <row r="46" ht="28" spans="1:6">
+      <c r="A46" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0.974</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0.937</v>
+      </c>
+      <c r="D46" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="E46" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="F46" s="29">
         <v>0.976</v>
       </c>
     </row>
@@ -3452,42 +3857,42 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.75" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>0.974</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>0.937</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>0.99</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>0.64</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>0.976</v>
       </c>
     </row>
@@ -3503,8 +3908,8 @@
   <sheetPr/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3515,71 +3920,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>140</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>3039</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <f>A4-A2</f>
         <v>395</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <f>B4-B2</f>
         <v>12951</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>535</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>15990</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>140</v>
       </c>
       <c r="B8">
         <f>C8-A8</f>
         <v>395</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>3039</v>
       </c>
       <c r="B9">
         <f>C9-A9</f>
         <v>12951</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>15990</v>
       </c>
     </row>
@@ -3617,140 +4022,140 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>140</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B19" si="0">C15-A15</f>
         <v>395</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>3039</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>12951</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>15990</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>140</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>3039</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>12951</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>15990</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>140</v>
       </c>
       <c r="B21">
         <f>C21-A21</f>
         <v>395</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>3039</v>
       </c>
       <c r="B22">
         <f>C22-A22</f>
         <v>12951</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>15990</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+      <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>838.5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>419.25</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>34.9</v>
       </c>
     </row>
@@ -3766,6 +4171,109 @@
       <c r="C28">
         <f>1677/C26</f>
         <v>34.9375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="29.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>63250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2">
+        <v>63250</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1090.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowWidth="18530" windowHeight="7130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>模型构件数</t>
   </si>
@@ -325,6 +326,45 @@
   <si>
     <t>PC2</t>
   </si>
+  <si>
+    <t>轻量性</t>
+  </si>
+  <si>
+    <t>多样性</t>
+  </si>
+  <si>
+    <t>真实性</t>
+  </si>
+  <si>
+    <t>规模性</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>优</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>Engage</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>VSWork</t>
+  </si>
+  <si>
+    <t>Mozilia hubs</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
 </sst>
 </file>
 
@@ -340,6 +380,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,23 +427,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,18 +486,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,6 +525,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -481,36 +543,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,18 +563,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -558,19 +604,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,19 +700,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,145 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +795,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -874,25 +937,7 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -917,6 +962,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -933,17 +993,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -952,16 +1001,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,21 +1029,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1003,240 +1037,258 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3058,7 +3110,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7520305" y="1130935"/>
+        <a:off x="7520305" y="1140460"/>
         <a:ext cx="3820795" cy="6656705"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3367,7 +3419,7 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3382,465 +3434,465 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:6">
-      <c r="A1" s="10"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="21">
         <v>1674</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="21">
         <v>782650</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.75" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="21">
         <v>43</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="21">
         <v>49395</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="14.75" spans="1:6">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="17">
         <v>0.974</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="17">
         <v>0.937</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>0.99</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
         <v>0.64</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="17">
         <v>0.976</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" ht="14.75" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" ht="24.75" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="24.75" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="21">
         <v>1674</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="21">
         <v>782.65</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="21">
         <v>727.5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="21">
         <v>30</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="21">
         <v>757.5</v>
       </c>
     </row>
     <row r="10" ht="24.75" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="25">
         <v>43</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="25">
         <v>49.395</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="25">
         <v>8</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="25">
         <v>10.7</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="25">
         <v>18.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="17" ht="14.75"/>
     <row r="18" ht="24.75" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" ht="24.75" spans="1:6">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="21">
         <v>1674</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="21">
         <v>782.65</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="21">
         <v>727.5</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="21">
         <v>30</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="21">
         <v>757.5</v>
       </c>
     </row>
     <row r="20" ht="24.75" spans="1:6">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="25">
         <v>43</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="25">
         <v>49.395</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="25">
         <v>8</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="25">
         <v>10.7</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="25">
         <v>18.7</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="20">
         <v>0.974</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="20">
         <v>0.937</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="20">
         <v>0.99</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="20">
         <v>0.64</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="20">
         <v>0.976</v>
       </c>
     </row>
     <row r="22" ht="36" spans="2:6">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="17">
+      <c r="B23" s="26">
         <v>1674</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="26">
         <v>782.65</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="26">
         <v>727.5</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="26">
         <v>30</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="26">
         <v>757.5</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="17">
+      <c r="B24" s="26">
         <v>43</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="26">
         <v>49.395</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="26">
         <v>8</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="26">
         <v>10.7</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="26">
         <v>18.7</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:6">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="29">
         <v>0.974</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="29">
         <v>0.937</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="30">
         <v>0.99</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="30">
         <v>0.64</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="29">
         <v>0.976</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:6">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" ht="28" spans="1:6">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="31">
         <v>1674</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="31">
         <v>782650</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="31">
         <v>727.5</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="31">
         <v>30</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="31">
         <v>757.5</v>
       </c>
     </row>
     <row r="44" ht="28" spans="1:6">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="32">
         <v>49395</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="32">
         <v>8</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="32">
         <v>10.7</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="32">
         <v>18.7</v>
       </c>
     </row>
     <row r="45" ht="28" spans="1:6">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="33">
         <f>B43-B44</f>
         <v>1631</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="33">
         <f>C43-C44</f>
         <v>733255</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="33">
         <f>D43-D44</f>
         <v>719.5</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="33">
         <f>E43-E44</f>
         <v>19.3</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="33">
         <f>F43-F44</f>
         <v>738.8</v>
       </c>
     </row>
     <row r="46" ht="28" spans="1:6">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="35">
         <v>0.974</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="35">
         <v>0.937</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="36">
         <v>0.99</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="36">
         <v>0.64</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="35">
         <v>0.976</v>
       </c>
     </row>
@@ -3863,36 +3915,36 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.75" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
-      <c r="A2" s="8">
+      <c r="A2" s="17">
         <v>0.974</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="17">
         <v>0.937</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="18">
         <v>0.99</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="18">
         <v>0.64</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="17">
         <v>0.976</v>
       </c>
     </row>
@@ -3920,71 +3972,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="14">
         <v>140</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="14">
         <v>3039</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="14">
         <f>A4-A2</f>
         <v>395</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="14">
         <f>B4-B2</f>
         <v>12951</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="14">
         <v>535</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="14">
         <v>15990</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="14">
         <v>140</v>
       </c>
       <c r="B8">
         <f>C8-A8</f>
         <v>395</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="14">
         <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="14">
         <v>3039</v>
       </c>
       <c r="B9">
         <f>C9-A9</f>
         <v>12951</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="14">
         <v>15990</v>
       </c>
     </row>
@@ -4022,140 +4074,140 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="14">
         <v>140</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B19" si="0">C15-A15</f>
         <v>395</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="14">
         <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="14">
         <v>3039</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>12951</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="14">
         <v>15990</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5">
+      <c r="A18" s="14">
         <v>140</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="14">
         <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5">
+      <c r="A19" s="14">
         <v>3039</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>12951</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="14">
         <v>15990</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5">
+      <c r="A21" s="14">
         <v>140</v>
       </c>
       <c r="B21">
         <f>C21-A21</f>
         <v>395</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="14">
         <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5">
+      <c r="A22" s="14">
         <v>3039</v>
       </c>
       <c r="B22">
         <f>C22-A22</f>
         <v>12951</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="14">
         <v>15990</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6">
+      <c r="A26" s="15">
         <v>2</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="15">
         <v>4</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="15">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6">
+      <c r="A27" s="15">
         <v>838.5</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="15">
         <v>419.25</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="15">
         <v>34.9</v>
       </c>
     </row>
@@ -4230,50 +4282,153 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>58</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
         <v>63250</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>1090.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="12">
         <v>54</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="12">
         <v>4000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
